--- a/DONE/CREUS, ROSENDA.xlsx
+++ b/DONE/CREUS, ROSENDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB44010-F545-4D0E-828E-95CB67CC6436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8F2E7F-E35B-42A7-A7B8-A15B78270C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>3/10,11/2020</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>10/17-21/2023</t>
+  </si>
+  <si>
+    <t>ASSESSOR</t>
   </si>
 </sst>
 </file>
@@ -666,15 +675,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -687,11 +687,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3334,9 +3343,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="2592" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="2592" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,14 +3375,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3384,16 +3393,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <v>40728</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3406,14 +3415,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3439,18 +3448,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3497,7 +3506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>50.25</v>
+        <v>50.042000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3507,7 +3516,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>65.25</v>
+        <v>65.042000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4824,21 +4833,25 @@
       <c r="A73" s="40">
         <v>44835</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C73" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
@@ -5852,17 +5865,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5898,9 +5911,9 @@
   <dimension ref="A2:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9:E130"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="3516" topLeftCell="A10"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5931,14 +5944,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5952,35 +5965,36 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
-        <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6006,18 +6020,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -8136,8 +8150,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J34" activeCellId="1" sqref="J32 J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
